--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ044.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ044.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B876C3FB-8E5A-401F-874B-5B8E8D225685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629710DE-9FAC-4F4D-A7C6-FA59EA976A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -464,10 +464,6 @@
   </si>
   <si>
     <t>CustId= , AND RcDate=</t>
-  </si>
-  <si>
-    <t>A:新增，C:異動，X:補件</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>三位文數字</t>
@@ -582,65 +578,71 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> :非屬二階段還款
+    <t>V</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>DecimalD</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukey</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水號</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>otherEq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate DESC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ukeyFirst</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukey=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>otherFirst</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubmitKey= , AND CustId= , AND RcDate=</t>
+  </si>
+  <si>
+    <t>SubmitKey,CustId,RcDate</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>custIdEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcDateEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>custRcEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增
+C:異動
+X:補件</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>單格空白:非屬二階段還款
 1:屬二階段還款方案之第一階段
 2:屬二階段還款方案之第二階段</t>
     <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>DecimalD</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ukey</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水號</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>otherEq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate DESC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ukeyFirst</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ukey=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>otherFirst</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubmitKey= , AND CustId= , AND RcDate=</t>
-  </si>
-  <si>
-    <t>SubmitKey,CustId,RcDate</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>custIdEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>rcDateEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>custRcEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1234,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1283,10 +1285,10 @@
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -1365,12 +1367,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="7" customFormat="1">
+    <row r="9" spans="1:10" s="7" customFormat="1" ht="48.6">
       <c r="A9" s="18">
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>22</v>
@@ -1383,7 +1385,7 @@
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="18" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -1400,14 +1402,14 @@
         <v>24</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E10" s="21">
         <v>3</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
@@ -1418,7 +1420,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>17</v>
@@ -1431,7 +1433,7 @@
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
@@ -1442,13 +1444,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E12" s="21">
         <v>8</v>
@@ -1477,7 +1479,7 @@
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
@@ -1556,7 +1558,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>39</v>
@@ -1578,7 +1580,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>40</v>
@@ -1600,7 +1602,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>41</v>
@@ -1622,7 +1624,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>42</v>
@@ -1644,7 +1646,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>43</v>
@@ -1666,7 +1668,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>44</v>
@@ -1710,7 +1712,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>46</v>
@@ -1845,7 +1847,7 @@
         <v>87</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>74</v>
@@ -1971,7 +1973,7 @@
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="18" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -2094,7 +2096,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>62</v>
@@ -2116,10 +2118,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>23</v>
@@ -2535,7 +2537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
@@ -2561,7 +2563,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>95</v>
@@ -2572,7 +2574,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>97</v>
@@ -2583,7 +2585,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>98</v>
@@ -2594,32 +2596,32 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
